--- a/Drug lists/SulfonylureaDrugNames.xlsx
+++ b/Drug lists/SulfonylureaDrugNames.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhD Research\PhD work\clinpath-CT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD work\clinpath_CT\Drug lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8FF35AB-5012-48B6-937B-D99F7DBDA3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA0ABD2-EDBD-4FFC-8D15-08246C3746D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{45331146-3C9F-4373-9778-1831A3100095}"/>
+    <workbookView xWindow="2620" yWindow="2620" windowWidth="19200" windowHeight="11170" xr2:uid="{45331146-3C9F-4373-9778-1831A3100095}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Chlorpropamide</t>
   </si>
@@ -147,19 +147,31 @@
   </si>
   <si>
     <t>GlipiZIDE XL</t>
+  </si>
+  <si>
+    <t>glyburide-metformin</t>
+  </si>
+  <si>
+    <t>glipizide-metformin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,8 +194,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,210 +533,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01239A33-7E12-4013-9A28-A99B213FEC96}">
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
